--- a/results/mp/logistic/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,87 +40,78 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -133,145 +124,148 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>join</t>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>yes</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>dear</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>important</t>
@@ -280,34 +274,34 @@
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>employees</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
   <si>
     <t>stay</t>
@@ -316,16 +310,13 @@
     <t>shopping</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>need</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -691,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -802,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7808219178082192</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C4">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D4">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6538461538461539</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.631578947368421</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8813559322033898</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1073,16 +1064,16 @@
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8590078328981723</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,10 +1096,10 @@
         <v>0.6</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,38 +1143,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L11">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1194,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5135135135135135</v>
+        <v>0.4748062015503876</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8207547169811321</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4705882352941176</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4534883720930232</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C14">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.8048780487804879</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4497354497354497</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7878787878787878</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,7 +1393,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.35</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -1420,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.8125</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3272727272727273</v>
+        <v>0.36</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.32</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3090909090909091</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.775</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3087248322147651</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1620,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.7727272727272727</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3050847457627119</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.7578125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2678571428571428</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1723,16 +1714,16 @@
         <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1744,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,49 +1743,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1948051948051948</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23">
+        <v>0.7580645161290323</v>
+      </c>
+      <c r="L23">
+        <v>47</v>
+      </c>
+      <c r="M23">
+        <v>48</v>
+      </c>
+      <c r="N23">
+        <v>0.98</v>
+      </c>
+      <c r="O23">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
         <v>15</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>62</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L23">
-        <v>35</v>
-      </c>
-      <c r="M23">
-        <v>35</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1706349206349206</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.7428571428571429</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1844,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,49 +1843,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1444444444444444</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>342</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L25">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>35</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>13</v>
-      </c>
-      <c r="D25">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>77</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,37 +1893,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0938337801608579</v>
+        <v>0.02102879327078615</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>338</v>
+        <v>3026</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.7291666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1944,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,37 +1943,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04666666666666667</v>
+        <v>0.01274787535410765</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>286</v>
+        <v>2091</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.7222222222222222</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1994,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2002,213 +1993,141 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01752109020116807</v>
+        <v>0.007313195548489666</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>79</v>
       </c>
       <c r="E28">
-        <v>0.32</v>
+        <v>0.71</v>
       </c>
       <c r="F28">
-        <v>0.6799999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3028</v>
+        <v>3122</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L28">
+        <v>19</v>
+      </c>
+      <c r="M28">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>24</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>32</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K28">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L28">
-        <v>45</v>
-      </c>
-      <c r="M28">
-        <v>45</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
+      <c r="K31">
+        <v>0.68</v>
+      </c>
+      <c r="L31">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>0.01386481802426343</v>
-      </c>
-      <c r="C29">
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>16</v>
-      </c>
-      <c r="D29">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.3</v>
-      </c>
-      <c r="F29">
-        <v>0.7</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1138</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29">
-        <v>0.7</v>
-      </c>
-      <c r="L29">
-        <v>28</v>
-      </c>
-      <c r="M29">
-        <v>28</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.01228733459357278</v>
-      </c>
-      <c r="C30">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>53</v>
-      </c>
-      <c r="E30">
-        <v>0.51</v>
-      </c>
-      <c r="F30">
-        <v>0.49</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2090</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L30">
-        <v>13</v>
-      </c>
-      <c r="M30">
-        <v>13</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.007648183556405353</v>
-      </c>
-      <c r="C31">
-        <v>24</v>
-      </c>
-      <c r="D31">
-        <v>87</v>
-      </c>
-      <c r="E31">
-        <v>0.72</v>
-      </c>
-      <c r="F31">
-        <v>0.28</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>3114</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L31">
-        <v>15</v>
-      </c>
-      <c r="M31">
-        <v>15</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.68</v>
+        <v>0.675</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2220,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.6511627906976745</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2272,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.6461538461538462</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2298,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.6428571428571429</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2324,47 +2243,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.6411764705882353</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L37">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="M37">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.6192468619246861</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2376,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.6142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2402,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.6071428571428571</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2428,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.6033898305084746</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L41">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2454,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.5851063829787234</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L42">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2480,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2506,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.5757575757575758</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2532,15 +2451,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
         <v>13</v>
@@ -2558,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2584,47 +2503,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.5056179775280899</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L47">
+        <v>44</v>
+      </c>
+      <c r="M47">
+        <v>44</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>45</v>
-      </c>
-      <c r="M47">
-        <v>45</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>44</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2636,21 +2555,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.4901960784313725</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2662,15 +2581,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.4814814814814815</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L50">
         <v>13</v>
@@ -2688,47 +2607,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.4666666666666667</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.3846153846153846</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2740,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.3835616438356164</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2766,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.3823529411764706</v>
+        <v>0.34375</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2792,21 +2711,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.328125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2818,21 +2737,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>0.3050847457627119</v>
+        <v>0.325</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2844,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>0.2456140350877193</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2870,21 +2789,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>0.1944444444444444</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2896,47 +2815,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K59">
-        <v>0.1666666666666667</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K60">
-        <v>0.1370967741935484</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2948,15 +2867,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K61">
-        <v>0.1368421052631579</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L61">
         <v>13</v>
@@ -2974,21 +2893,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K62">
-        <v>0.1150442477876106</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3000,47 +2919,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K63">
-        <v>0.06840390879478828</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>286</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K64">
-        <v>0.04807692307692308</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3052,189 +2971,189 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>396</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K65">
-        <v>0.02790697674418605</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N65">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>627</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K66">
-        <v>0.02666666666666667</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>876</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K67">
-        <v>0.02013422818791946</v>
+        <v>0.02561247216035635</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="K68">
-        <v>0.0198300283286119</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="L68">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="O68">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>3114</v>
+        <v>876</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="K69">
-        <v>0.0155440414507772</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M69">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N69">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="O69">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>950</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K70">
-        <v>0.01275389702409069</v>
+        <v>0.01181474480151229</v>
       </c>
       <c r="L70">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N70">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="O70">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K71">
-        <v>0.008188666885031117</v>
+        <v>0.005259697567389875</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N71">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="O71">
-        <v>0.6799999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>3028</v>
+        <v>3026</v>
       </c>
     </row>
   </sheetData>
